--- a/04-abril/SINDICATO (version 1).xlsx
+++ b/04-abril/SINDICATO (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{420CF43F-FC82-4919-9403-23B2DA1C088C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19425B3-8F8E-4A77-BA54-EA7EA93B00B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="525" windowWidth="9945" windowHeight="14175" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
+    <workbookView xWindow="20025" yWindow="405" windowWidth="7380" windowHeight="14085" xr2:uid="{1E34BA58-7DB8-4682-9842-F03DADA9E2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$C$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>DEBARRENECHEA</t>
   </si>
@@ -62,6 +61,9 @@
   </si>
   <si>
     <t>SINDICATO ABRIL 2025</t>
+  </si>
+  <si>
+    <t>perfecto</t>
   </si>
 </sst>
 </file>
@@ -588,7 +590,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
         <v>35456.550000000003</v>
